--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Ccl20</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +540,10 @@
         <v>3.057639</v>
       </c>
       <c r="I2">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N2">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O2">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P2">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q2">
-        <v>0.09722272807</v>
+        <v>0.1662484188885</v>
       </c>
       <c r="R2">
-        <v>0.58333636842</v>
+        <v>0.9974905133309999</v>
       </c>
       <c r="S2">
-        <v>0.3108071450284858</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="T2">
-        <v>0.2543552119575196</v>
+        <v>0.7212828052797984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,10 +602,10 @@
         <v>3.057639</v>
       </c>
       <c r="I3">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.928181872270981</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,276 +614,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N3">
         <v>0.126061</v>
       </c>
       <c r="O3">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P3">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q3">
-        <v>0.06424150499649998</v>
+        <v>0.0642415049965</v>
       </c>
       <c r="R3">
-        <v>0.3854490299789999</v>
+        <v>0.385449029979</v>
       </c>
       <c r="S3">
-        <v>0.2053708958456648</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="T3">
-        <v>0.1680693593383839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.019213</v>
-      </c>
-      <c r="H4">
-        <v>3.057639</v>
-      </c>
-      <c r="I4">
-        <v>0.928181872270981</v>
-      </c>
-      <c r="J4">
-        <v>0.928181872270981</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.379345</v>
-      </c>
-      <c r="O4">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P4">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q4">
-        <v>0.1288777851616666</v>
-      </c>
-      <c r="R4">
-        <v>1.159900066455</v>
-      </c>
-      <c r="S4">
-        <v>0.4120038313968303</v>
-      </c>
-      <c r="T4">
-        <v>0.5057573009750775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.07886166666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.236585</v>
-      </c>
-      <c r="I5">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="J5">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-      <c r="M5">
-        <v>0.09539</v>
-      </c>
-      <c r="N5">
-        <v>0.19078</v>
-      </c>
-      <c r="O5">
-        <v>0.3348558664133727</v>
-      </c>
-      <c r="P5">
-        <v>0.2740359616539259</v>
-      </c>
-      <c r="Q5">
-        <v>0.007522614383333333</v>
-      </c>
-      <c r="R5">
-        <v>0.0451356863</v>
-      </c>
-      <c r="S5">
-        <v>0.02404872138488693</v>
-      </c>
-      <c r="T5">
-        <v>0.01968074969640621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.07886166666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.236585</v>
-      </c>
-      <c r="I6">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="J6">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N6">
-        <v>0.126061</v>
-      </c>
-      <c r="O6">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P6">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q6">
-        <v>0.004970690280833332</v>
-      </c>
-      <c r="R6">
-        <v>0.02982414168499999</v>
-      </c>
-      <c r="S6">
-        <v>0.01589058531554792</v>
-      </c>
-      <c r="T6">
-        <v>0.01300437670342102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.07886166666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.236585</v>
-      </c>
-      <c r="I7">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="J7">
-        <v>0.07181812772901904</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.379345</v>
-      </c>
-      <c r="O7">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P7">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q7">
-        <v>0.009971926313888888</v>
-      </c>
-      <c r="R7">
-        <v>0.089747336825</v>
-      </c>
-      <c r="S7">
-        <v>0.03187882102858418</v>
-      </c>
-      <c r="T7">
-        <v>0.03913300132919181</v>
+        <v>0.2787171947202017</v>
       </c>
     </row>
   </sheetData>
